--- a/data/raw_xlsx/Times For Bern Ebersole.xlsx
+++ b/data/raw_xlsx/Times For Bern Ebersole.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="84">
   <si>
     <t>Event</t>
   </si>
@@ -197,6 +197,78 @@
   </si>
   <si>
     <t>2021 Summer Juniors (LCM)</t>
+  </si>
+  <si>
+    <t>2006 NE Men's HYP</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>2/3/2006</t>
+  </si>
+  <si>
+    <t>2006 MS Long Course Champions</t>
+  </si>
+  <si>
+    <t>7/20/2006</t>
+  </si>
+  <si>
+    <t>2006 LA BTAC Summer Classic</t>
+  </si>
+  <si>
+    <t>6/23/2006</t>
+  </si>
+  <si>
+    <t>2006 MS Stamm Family Invitational Swim</t>
+  </si>
+  <si>
+    <t>6/2/2006</t>
+  </si>
+  <si>
+    <t>2007 NJ Men's Harvard-Yale-Princeton</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>2/3/2007</t>
+  </si>
+  <si>
+    <t>"AAAA"</t>
+  </si>
+  <si>
+    <t>2008 CT HYP Men</t>
+  </si>
+  <si>
+    <t>2/1/2008</t>
+  </si>
+  <si>
+    <t>2017 US Open</t>
+  </si>
+  <si>
+    <t>2008 EISL Champs men</t>
+  </si>
+  <si>
+    <t>3/6/2008</t>
+  </si>
+  <si>
+    <t>2021 Futures (LCM)</t>
+  </si>
+  <si>
+    <t>2019 Winter US Open (LCM)</t>
+  </si>
+  <si>
+    <t>2009 NE Men's Harvard-Yale-Princeton</t>
+  </si>
+  <si>
+    <t>1/31/2009</t>
+  </si>
+  <si>
+    <t>2009 Ivy League Champs men</t>
+  </si>
+  <si>
+    <t>3/5/2009</t>
   </si>
 </sst>
 </file>
@@ -2142,6 +2214,806 @@
         <v>52</v>
       </c>
     </row>
+    <row r="59" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="2">
+        <v>33.5007005787037</v>
+      </c>
+      <c r="C59" s="2">
+        <v>33.5007005787037</v>
+      </c>
+      <c r="D59" t="n">
+        <v>19</v>
+      </c>
+      <c r="E59" t="n">
+        <v>678</v>
+      </c>
+      <c r="F59" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" t="s">
+        <v>60</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" t="s">
+        <v>61</v>
+      </c>
+      <c r="J59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="2">
+        <v>33.50151388888889</v>
+      </c>
+      <c r="C60" s="2">
+        <v>33.50151388888889</v>
+      </c>
+      <c r="D60" t="n">
+        <v>19</v>
+      </c>
+      <c r="E60" t="n">
+        <v>707</v>
+      </c>
+      <c r="F60" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60" t="s">
+        <v>60</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
+        <v>61</v>
+      </c>
+      <c r="J60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="2">
+        <v>33.50134803240741</v>
+      </c>
+      <c r="C61" s="2">
+        <v>33.50134803240741</v>
+      </c>
+      <c r="D61" t="n">
+        <v>19</v>
+      </c>
+      <c r="E61" t="n">
+        <v>699</v>
+      </c>
+      <c r="F61" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" t="s">
+        <v>60</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
+        <v>61</v>
+      </c>
+      <c r="J61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="2">
+        <v>33.50287604166667</v>
+      </c>
+      <c r="C62" s="2">
+        <v>33.50287604166667</v>
+      </c>
+      <c r="D62" t="n">
+        <v>19</v>
+      </c>
+      <c r="E62" t="n">
+        <v>722</v>
+      </c>
+      <c r="F62" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" t="s">
+        <v>60</v>
+      </c>
+      <c r="H62" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" t="s">
+        <v>61</v>
+      </c>
+      <c r="J62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="4">
+        <v>33.500299884259256</v>
+      </c>
+      <c r="C63" s="4">
+        <v>36557.50029988426</v>
+      </c>
+      <c r="D63" t="n">
+        <v>19</v>
+      </c>
+      <c r="E63" t="n">
+        <v>665</v>
+      </c>
+      <c r="F63" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="4">
+        <v>33.50068854166667</v>
+      </c>
+      <c r="C64" s="4">
+        <v>36557.500688541666</v>
+      </c>
+      <c r="D64" t="n">
+        <v>19</v>
+      </c>
+      <c r="E64" t="n">
+        <v>513</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>65</v>
+      </c>
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" t="s">
+        <v>61</v>
+      </c>
+      <c r="J64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" s="2">
+        <v>33.50143425925926</v>
+      </c>
+      <c r="C65" s="2">
+        <v>33.50143425925926</v>
+      </c>
+      <c r="D65" t="n">
+        <v>19</v>
+      </c>
+      <c r="E65" t="n">
+        <v>615</v>
+      </c>
+      <c r="F65" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" t="s">
+        <v>63</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="3">
+        <v>33.514149074074076</v>
+      </c>
+      <c r="C66" s="3">
+        <v>33.514149074074076</v>
+      </c>
+      <c r="D66" t="n">
+        <v>19</v>
+      </c>
+      <c r="E66" t="n">
+        <v>283</v>
+      </c>
+      <c r="F66" t="s">
+        <v>50</v>
+      </c>
+      <c r="G66" t="s">
+        <v>67</v>
+      </c>
+      <c r="H66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="2">
+        <v>33.500752893518516</v>
+      </c>
+      <c r="C67" s="2">
+        <v>33.500752893518516</v>
+      </c>
+      <c r="D67" t="n">
+        <v>19</v>
+      </c>
+      <c r="E67" t="n">
+        <v>579</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>63</v>
+      </c>
+      <c r="H67" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="2">
+        <v>33.501807523148145</v>
+      </c>
+      <c r="C68" s="2">
+        <v>33.501807523148145</v>
+      </c>
+      <c r="D68" t="n">
+        <v>19</v>
+      </c>
+      <c r="E68" t="n">
+        <v>333</v>
+      </c>
+      <c r="F68" t="s">
+        <v>50</v>
+      </c>
+      <c r="G68" t="s">
+        <v>67</v>
+      </c>
+      <c r="H68" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="2">
+        <v>33.500818171296295</v>
+      </c>
+      <c r="C69" s="2">
+        <v>33.500818171296295</v>
+      </c>
+      <c r="D69" t="n">
+        <v>19</v>
+      </c>
+      <c r="E69" t="n">
+        <v>669</v>
+      </c>
+      <c r="F69" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" t="s">
+        <v>63</v>
+      </c>
+      <c r="H69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="2">
+        <v>33.50178159722222</v>
+      </c>
+      <c r="C70" s="2">
+        <v>33.50178159722222</v>
+      </c>
+      <c r="D70" t="n">
+        <v>19</v>
+      </c>
+      <c r="E70" t="n">
+        <v>698</v>
+      </c>
+      <c r="F70" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" t="s">
+        <v>63</v>
+      </c>
+      <c r="H70" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="2">
+        <v>33.50157199074074</v>
+      </c>
+      <c r="C71" s="2">
+        <v>33.50157199074074</v>
+      </c>
+      <c r="D71" t="n">
+        <v>19</v>
+      </c>
+      <c r="E71" t="n">
+        <v>684</v>
+      </c>
+      <c r="F71" t="s">
+        <v>39</v>
+      </c>
+      <c r="G71" t="s">
+        <v>63</v>
+      </c>
+      <c r="H71" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="2">
+        <v>33.50352905092593</v>
+      </c>
+      <c r="C72" s="2">
+        <v>33.50352905092593</v>
+      </c>
+      <c r="D72" t="n">
+        <v>19</v>
+      </c>
+      <c r="E72" t="n">
+        <v>568</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>63</v>
+      </c>
+      <c r="H72" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="4">
+        <v>33.500690856481484</v>
+      </c>
+      <c r="C73" s="4">
+        <v>36557.50069085648</v>
+      </c>
+      <c r="D73" t="n">
+        <v>20</v>
+      </c>
+      <c r="E73" t="n">
+        <v>710</v>
+      </c>
+      <c r="F73" t="s">
+        <v>39</v>
+      </c>
+      <c r="G73" t="s">
+        <v>69</v>
+      </c>
+      <c r="H73" t="s">
+        <v>70</v>
+      </c>
+      <c r="I73" t="s">
+        <v>61</v>
+      </c>
+      <c r="J73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="2">
+        <v>33.501499074074076</v>
+      </c>
+      <c r="C74" s="2">
+        <v>33.501499074074076</v>
+      </c>
+      <c r="D74" t="n">
+        <v>20</v>
+      </c>
+      <c r="E74" t="n">
+        <v>728</v>
+      </c>
+      <c r="F74" t="s">
+        <v>39</v>
+      </c>
+      <c r="G74" t="s">
+        <v>69</v>
+      </c>
+      <c r="H74" t="s">
+        <v>70</v>
+      </c>
+      <c r="I74" t="s">
+        <v>61</v>
+      </c>
+      <c r="J74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="2">
+        <v>33.501336342592595</v>
+      </c>
+      <c r="C75" s="2">
+        <v>33.501336342592595</v>
+      </c>
+      <c r="D75" t="n">
+        <v>20</v>
+      </c>
+      <c r="E75" t="n">
+        <v>722</v>
+      </c>
+      <c r="F75" t="s">
+        <v>72</v>
+      </c>
+      <c r="G75" t="s">
+        <v>69</v>
+      </c>
+      <c r="H75" t="s">
+        <v>70</v>
+      </c>
+      <c r="I75" t="s">
+        <v>61</v>
+      </c>
+      <c r="J75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" s="2">
+        <v>33.502877777777776</v>
+      </c>
+      <c r="C76" s="2">
+        <v>33.502877777777776</v>
+      </c>
+      <c r="D76" t="n">
+        <v>20</v>
+      </c>
+      <c r="E76" t="n">
+        <v>720</v>
+      </c>
+      <c r="F76" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" t="s">
+        <v>69</v>
+      </c>
+      <c r="H76" t="s">
+        <v>70</v>
+      </c>
+      <c r="I76" t="s">
+        <v>61</v>
+      </c>
+      <c r="J76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="4">
+        <v>33.50069282407407</v>
+      </c>
+      <c r="C77" s="4">
+        <v>36557.50069282408</v>
+      </c>
+      <c r="D77" t="n">
+        <v>21</v>
+      </c>
+      <c r="E77" t="n">
+        <v>704</v>
+      </c>
+      <c r="F77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G77" t="s">
+        <v>73</v>
+      </c>
+      <c r="H77" t="s">
+        <v>70</v>
+      </c>
+      <c r="I77" t="s">
+        <v>61</v>
+      </c>
+      <c r="J77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="2">
+        <v>33.501299421296295</v>
+      </c>
+      <c r="C78" s="2">
+        <v>33.501299421296295</v>
+      </c>
+      <c r="D78" t="n">
+        <v>21</v>
+      </c>
+      <c r="E78" t="n">
+        <v>795</v>
+      </c>
+      <c r="F78" t="s">
+        <v>75</v>
+      </c>
+      <c r="G78" t="s">
+        <v>76</v>
+      </c>
+      <c r="H78" t="s">
+        <v>70</v>
+      </c>
+      <c r="I78" t="s">
+        <v>61</v>
+      </c>
+      <c r="J78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" s="2">
+        <v>33.50282060185185</v>
+      </c>
+      <c r="C79" s="2">
+        <v>33.50282060185185</v>
+      </c>
+      <c r="D79" t="n">
+        <v>21</v>
+      </c>
+      <c r="E79" t="n">
+        <v>770</v>
+      </c>
+      <c r="F79" t="s">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s">
+        <v>76</v>
+      </c>
+      <c r="H79" t="s">
+        <v>70</v>
+      </c>
+      <c r="I79" t="s">
+        <v>61</v>
+      </c>
+      <c r="J79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="4">
+        <v>33.50065636574074</v>
+      </c>
+      <c r="C80" s="4">
+        <v>36557.500656365744</v>
+      </c>
+      <c r="D80" t="n">
+        <v>22</v>
+      </c>
+      <c r="E80" t="n">
+        <v>827</v>
+      </c>
+      <c r="F80" t="s">
+        <v>79</v>
+      </c>
+      <c r="G80" t="s">
+        <v>80</v>
+      </c>
+      <c r="H80" t="s">
+        <v>70</v>
+      </c>
+      <c r="I80" t="s">
+        <v>61</v>
+      </c>
+      <c r="J80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="2">
+        <v>33.50139814814815</v>
+      </c>
+      <c r="C81" s="2">
+        <v>33.50139814814815</v>
+      </c>
+      <c r="D81" t="n">
+        <v>22</v>
+      </c>
+      <c r="E81" t="n">
+        <v>875</v>
+      </c>
+      <c r="F81" t="s">
+        <v>75</v>
+      </c>
+      <c r="G81" t="s">
+        <v>80</v>
+      </c>
+      <c r="H81" t="s">
+        <v>70</v>
+      </c>
+      <c r="I81" t="s">
+        <v>61</v>
+      </c>
+      <c r="J81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="2">
+        <v>33.50126284722222</v>
+      </c>
+      <c r="C82" s="2">
+        <v>33.50126284722222</v>
+      </c>
+      <c r="D82" t="n">
+        <v>22</v>
+      </c>
+      <c r="E82" t="n">
+        <v>871</v>
+      </c>
+      <c r="F82" t="s">
+        <v>75</v>
+      </c>
+      <c r="G82" t="s">
+        <v>82</v>
+      </c>
+      <c r="H82" t="s">
+        <v>70</v>
+      </c>
+      <c r="I82" t="s">
+        <v>61</v>
+      </c>
+      <c r="J82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="2">
+        <v>33.5027025462963</v>
+      </c>
+      <c r="C83" s="2">
+        <v>33.5027025462963</v>
+      </c>
+      <c r="D83" t="n">
+        <v>22</v>
+      </c>
+      <c r="E83" t="n">
+        <v>876</v>
+      </c>
+      <c r="F83" t="s">
+        <v>75</v>
+      </c>
+      <c r="G83" t="s">
+        <v>82</v>
+      </c>
+      <c r="H83" t="s">
+        <v>70</v>
+      </c>
+      <c r="I83" t="s">
+        <v>61</v>
+      </c>
+      <c r="J83" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
